--- a/Spatial_Data/Vaccination_Data/State_Exemptions.xlsx
+++ b/Spatial_Data/Vaccination_Data/State_Exemptions.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/State_Data/Demographic_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/Spatial_Data/Vaccination_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{F4146C9F-5E18-448E-8E22-28557963B86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E18A5948-F946-48E1-A057-BE09DAF82503}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{F4146C9F-5E18-448E-8E22-28557963B86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{306E0378-EC68-4B6D-BEC5-3D5D11F33073}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9DAB7E7D-D0E1-4C66-90A2-BD6BEFB4C310}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="2" activeTab="3" xr2:uid="{9DAB7E7D-D0E1-4C66-90A2-BD6BEFB4C310}"/>
   </bookViews>
   <sheets>
-    <sheet name="MMR" sheetId="3" r:id="rId1"/>
-    <sheet name="Others" sheetId="2" r:id="rId2"/>
+    <sheet name="MMR_Religious" sheetId="4" r:id="rId1"/>
+    <sheet name="Other_Religious" sheetId="5" r:id="rId2"/>
+    <sheet name="MMR_Philosophical" sheetId="6" r:id="rId3"/>
+    <sheet name="Other_Philosophical" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MMR!$C$1:$M$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Others!$C$1:$M$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">MMR_Philosophical!$A$1:$I$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Other_Religious!$A$1:$I$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="60">
   <si>
     <t>Alabama</t>
   </si>
@@ -193,43 +195,7 @@
     <t>State</t>
   </si>
   <si>
-    <t>Religious_2018</t>
-  </si>
-  <si>
-    <t>Philosophical_2018</t>
-  </si>
-  <si>
-    <t>Religious_2019</t>
-  </si>
-  <si>
-    <t>Religious_2020</t>
-  </si>
-  <si>
-    <t>Religious_2021</t>
-  </si>
-  <si>
-    <t>Philosophical_2019</t>
-  </si>
-  <si>
-    <t>Philosophical_2020</t>
-  </si>
-  <si>
-    <t>Philosophical_2021</t>
-  </si>
-  <si>
-    <t>Religious_2017</t>
-  </si>
-  <si>
-    <t>Philosophical_2017</t>
-  </si>
-  <si>
     <t>State_FIPs</t>
-  </si>
-  <si>
-    <t>Philosophical_2022</t>
-  </si>
-  <si>
-    <t>Religious_2022</t>
   </si>
   <si>
     <t>Conneticut</t>
@@ -237,15 +203,42 @@
   <si>
     <t>Massachusets</t>
   </si>
+  <si>
+    <t>Year_2017</t>
+  </si>
+  <si>
+    <t>Year_2018</t>
+  </si>
+  <si>
+    <t>Year_2019</t>
+  </si>
+  <si>
+    <t>Year_2020</t>
+  </si>
+  <si>
+    <t>Year_2021</t>
+  </si>
+  <si>
+    <t>Year_2022</t>
+  </si>
+  <si>
+    <t>Year_2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -590,72 +583,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A020CB70-BED9-46FD-909D-D03B9CCC0B3C}">
-  <dimension ref="A1:N52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48412422-B7F5-4A3D-83E5-7A9C550C88B9}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="14" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
       </c>
       <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -681,25 +652,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -725,25 +681,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -751,43 +692,28 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -815,23 +741,8 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -859,23 +770,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -903,25 +799,10 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -947,23 +828,8 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -989,25 +855,10 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1033,25 +884,10 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1077,25 +913,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1121,25 +942,10 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1165,25 +971,10 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1211,23 +1002,8 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1253,25 +1029,10 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1297,25 +1058,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1341,25 +1087,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1385,25 +1116,10 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1429,25 +1145,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1475,23 +1176,8 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1517,25 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1561,27 +1232,12 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -1605,25 +1261,10 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1651,23 +1292,8 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1695,23 +1321,8 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1737,25 +1348,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1781,25 +1377,10 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1825,25 +1406,10 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1869,25 +1435,10 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1913,25 +1464,10 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1957,25 +1493,10 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2001,25 +1522,10 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2045,25 +1551,10 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2091,23 +1582,8 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2133,25 +1609,10 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2179,23 +1640,8 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2223,23 +1669,8 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2267,23 +1698,8 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2311,23 +1727,8 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2355,23 +1756,8 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2397,25 +1783,10 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2441,25 +1812,10 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2485,25 +1841,10 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2529,25 +1870,10 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2575,23 +1901,8 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2619,23 +1930,8 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -2663,23 +1959,8 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2705,25 +1986,10 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2751,23 +2017,8 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2795,23 +2046,8 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2839,23 +2075,8 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2881,99 +2102,59 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N52">
-    <sortCondition ref="A2:A52"/>
-  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D9F849-3C63-4317-AA11-6BB1115C2525}">
-  <dimension ref="A1:N52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900EF315-5791-4143-BBAD-42824FD5121E}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="1" sqref="A3:B52 B2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="14" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>62</v>
       </c>
       <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2999,25 +2180,10 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3043,25 +2209,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3069,43 +2220,28 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3133,23 +2269,8 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3177,23 +2298,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3221,25 +2327,10 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -3265,23 +2356,8 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3307,25 +2383,10 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3351,25 +2412,10 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3395,25 +2441,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3439,25 +2470,10 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3483,25 +2499,10 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3529,23 +2530,8 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3571,25 +2557,10 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3615,25 +2586,10 @@
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3659,25 +2615,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3703,25 +2644,10 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3747,25 +2673,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3793,23 +2704,8 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3835,25 +2731,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3879,27 +2760,12 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -3923,25 +2789,10 @@
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -3969,23 +2820,8 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4013,23 +2849,8 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -4055,25 +2876,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4099,25 +2905,10 @@
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -4143,25 +2934,10 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -4187,25 +2963,10 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4231,25 +2992,10 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -4275,25 +3021,10 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -4319,25 +3050,10 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -4363,25 +3079,10 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -4409,23 +3110,8 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -4451,25 +3137,10 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -4497,23 +3168,8 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -4541,23 +3197,8 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -4585,23 +3226,8 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -4629,23 +3255,8 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -4673,23 +3284,8 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -4715,25 +3311,10 @@
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -4759,25 +3340,10 @@
         <v>1</v>
       </c>
       <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4803,25 +3369,10 @@
         <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -4847,25 +3398,10 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -4893,23 +3429,8 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -4937,23 +3458,8 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -4981,23 +3487,8 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -5023,25 +3514,10 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -5069,23 +3545,8 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -5113,23 +3574,8 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -5157,23 +3603,8 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -5199,28 +3630,3066 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N52">
-    <sortCondition ref="A2:A52"/>
-  </sortState>
+  <autoFilter ref="A1:I52" xr:uid="{900EF315-5791-4143-BBAD-42824FD5121E}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E22D38-B591-477D-B0A7-19CBE77C929A}">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I52" xr:uid="{E4E22D38-B591-477D-B0A7-19CBE77C929A}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59CFC41-9B5A-4347-A982-71AD6EFBD691}">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48">
+        <v>51</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>